--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F1_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F1_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,7 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,14 +224,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -517,18 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">

--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F1_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F1_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>176139528.5990591</v>
       </c>
       <c r="AZ2" t="n">
-        <v>157607617.1479098</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>296242414.0327271</v>
+        <v>299015109.9704235</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>82519968.6602256</v>
@@ -1011,707 +1002,1745 @@
         <v>78879374.56307961</v>
       </c>
       <c r="AZ3" t="n">
-        <v>157607617.1479098</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>167831860.8107432</v>
+        <v>168036345.6839998</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>17817888.64439061</v>
       </c>
-      <c r="C4" t="s"/>
+      <c r="C4" t="n">
+        <v>37174106.62159453</v>
+      </c>
       <c r="D4" t="n">
         <v>9382497.23560736</v>
       </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
+      <c r="E4" t="n">
+        <v>24118376.03356449</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13341008.83573624</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13191417.91557785</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27294067.0142912</v>
+      </c>
       <c r="I4" t="n">
         <v>57023463.03062457</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
+      <c r="J4" t="n">
+        <v>26890908.46793222</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5518812.72096861</v>
+      </c>
       <c r="L4" t="n">
         <v>21077180.47498104</v>
       </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="M4" t="n">
+        <v>22971152.22212134</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41939403.63064454</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23288871.43272404</v>
+      </c>
+      <c r="P4" t="n">
+        <v>27382594.91712471</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>37849386.97413497</v>
+      </c>
       <c r="R4" t="n">
         <v>16377312.02836003</v>
       </c>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
+      <c r="S4" t="n">
+        <v>32399530.8772686</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20169531.13713853</v>
+      </c>
+      <c r="U4" t="n">
+        <v>23746157.06904395</v>
+      </c>
+      <c r="V4" t="n">
+        <v>32783770.2044002</v>
+      </c>
       <c r="W4" t="n">
         <v>22780497.03587914</v>
       </c>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
+      <c r="X4" t="n">
+        <v>15173580.76211588</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19669999.84718641</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26965174.87961439</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26648836.30124756</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>22897989.89537292</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>31239841.15124279</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>40533303.8457768</v>
+      </c>
       <c r="AE4" t="n">
         <v>47161014.61048497</v>
       </c>
-      <c r="AF4" t="s"/>
+      <c r="AF4" t="n">
+        <v>18741487.18478386</v>
+      </c>
       <c r="AG4" t="n">
         <v>18870831.24485388</v>
       </c>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
+      <c r="AH4" t="n">
+        <v>22965206.95879486</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>32737463.97027559</v>
+      </c>
       <c r="AJ4" t="n">
         <v>19961015.93285428</v>
       </c>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
+      <c r="AK4" t="n">
+        <v>14173342.09268319</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15702525.79416013</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>16228239.68252373</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>30485866.24561536</v>
+      </c>
       <c r="AO4" t="n">
         <v>44213007.38387208</v>
       </c>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
+      <c r="AP4" t="n">
+        <v>11976474.20837489</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>35062101.48688424</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>6672018.71149522</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>18307593.10529766</v>
+      </c>
       <c r="AT4" t="n">
         <v>34191846.5256172</v>
       </c>
       <c r="AU4" t="n">
         <v>23722066.73985676</v>
       </c>
-      <c r="AV4" t="s"/>
+      <c r="AV4" t="n">
+        <v>18827897.44658998</v>
+      </c>
       <c r="AW4" t="n">
         <v>20419684.79013586</v>
       </c>
-      <c r="AX4" t="s"/>
+      <c r="AX4" t="n">
+        <v>3665969.23970323</v>
+      </c>
       <c r="AY4" t="n">
         <v>28515529.77098014</v>
       </c>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="n">
-        <v>27250988.24632128</v>
+      <c r="AZ4" t="n">
+        <v>24404956.88665005</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>252</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>1325863.90495191</v>
       </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-      <c r="AO5" t="s"/>
-      <c r="AP5" t="s"/>
-      <c r="AQ5" t="s"/>
-      <c r="AR5" t="s"/>
-      <c r="AS5" t="s"/>
-      <c r="AT5" t="s"/>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
-      <c r="AX5" t="s"/>
-      <c r="AY5" t="s"/>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="n">
-        <v>1325863.90495191</v>
+      <c r="C5" t="n">
+        <v>1002936.24130179</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1482845.07937346</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1767772.58082116</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1155292.98179557</v>
+      </c>
+      <c r="G5" t="n">
+        <v>651747.34358472</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1030018.88915191</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2004476.00034368</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1306039.79560088</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1760903.01026562</v>
+      </c>
+      <c r="L5" t="n">
+        <v>831174.12828287</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1021073.57748903</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1391140.04546763</v>
+      </c>
+      <c r="O5" t="n">
+        <v>458500.85338014</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1993616.20152796</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>863628.8925912</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1125601.53270654</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5004958.64449011</v>
+      </c>
+      <c r="T5" t="n">
+        <v>885614.42044764</v>
+      </c>
+      <c r="U5" t="n">
+        <v>710109.60454581</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1436471.01575283</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1167932.16421346</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1626710.91585383</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1478448.27625888</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2952011.0074305</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>889018.41445738</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3225242.37580834</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1295085.4301377</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6243237.34334497</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1621668.58499653</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2118660.13553165</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>492004.3621197</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1815178.16560609</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2704675.57249184</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>508726.19468014</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>476576.9016917</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4413256.0867928</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1268014.08738063</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>951653.10555469</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1012773.14887225</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>942945.70237171</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3127196.0421797</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1431397.32473487</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1054173.41272447</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1536455.6659195</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3672584.22534584</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>598143.0964367701</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>884251.17811085</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1881472.42896835</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2168970.06257551</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1655364.92312926</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>505</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>326428.40327152</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
-      <c r="AQ6" t="s"/>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
-      <c r="AT6" t="s"/>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="n">
-        <v>326428.40327152</v>
+      <c r="C6" t="n">
+        <v>233260.45533311</v>
+      </c>
+      <c r="D6" t="n">
+        <v>215119.67788957</v>
+      </c>
+      <c r="E6" t="n">
+        <v>431023.46678166</v>
+      </c>
+      <c r="F6" t="n">
+        <v>221238.25116861</v>
+      </c>
+      <c r="G6" t="n">
+        <v>302367.57422653</v>
+      </c>
+      <c r="H6" t="n">
+        <v>519945.15044742</v>
+      </c>
+      <c r="I6" t="n">
+        <v>554454.4973319001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>746666.53730492</v>
+      </c>
+      <c r="K6" t="n">
+        <v>75373.60393735</v>
+      </c>
+      <c r="L6" t="n">
+        <v>380320.25546954</v>
+      </c>
+      <c r="M6" t="n">
+        <v>82860.56998219001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>735988.43221724</v>
+      </c>
+      <c r="O6" t="n">
+        <v>451783.09216119</v>
+      </c>
+      <c r="P6" t="n">
+        <v>473310.76782397</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>248182.13879243</v>
+      </c>
+      <c r="R6" t="n">
+        <v>296437.96689805</v>
+      </c>
+      <c r="S6" t="n">
+        <v>616800.23189392</v>
+      </c>
+      <c r="T6" t="n">
+        <v>119808.22431337</v>
+      </c>
+      <c r="U6" t="n">
+        <v>197938.40226137</v>
+      </c>
+      <c r="V6" t="n">
+        <v>342243.34055234</v>
+      </c>
+      <c r="W6" t="n">
+        <v>266489.85225448</v>
+      </c>
+      <c r="X6" t="n">
+        <v>387370.34828016</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>171802.60857904</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1060099.55173897</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>554738.96664042</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>673000.38472258</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>232730.69298797</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2621685.00680492</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>857594.0314353399</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>590236.17267071</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>492004.3621197</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>388319.7201996</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>687934.61479921</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>208925.42747813</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>211947.58613457</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>426496.91316037</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>213337.43603786</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>214289.93091937</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>338739.44207753</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>272115.66110945</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>785265.65241198</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>240869.50060433</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>645442.86520634</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>643483.30167518</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>857330.56717723</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>313908.0778878</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>362649.82953294</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>385904.64111558</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>293375.57824377</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>459392.79528127</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>757</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>63939.78113899</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="n">
-        <v>63939.78113899</v>
+      <c r="C7" t="n">
+        <v>74362.57066315001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>181219.49395492</v>
+      </c>
+      <c r="E7" t="n">
+        <v>242624.05086191</v>
+      </c>
+      <c r="F7" t="n">
+        <v>123661.07663838</v>
+      </c>
+      <c r="G7" t="n">
+        <v>122543.24078674</v>
+      </c>
+      <c r="H7" t="n">
+        <v>149114.58981905</v>
+      </c>
+      <c r="I7" t="n">
+        <v>204510.59989633</v>
+      </c>
+      <c r="J7" t="n">
+        <v>384699.66638615</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49370.78463534</v>
+      </c>
+      <c r="L7" t="n">
+        <v>129922.9996993</v>
+      </c>
+      <c r="M7" t="n">
+        <v>60997.98562484</v>
+      </c>
+      <c r="N7" t="n">
+        <v>321155.20960044</v>
+      </c>
+      <c r="O7" t="n">
+        <v>346140.57641474</v>
+      </c>
+      <c r="P7" t="n">
+        <v>184375.28936666</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>228418.4462164</v>
+      </c>
+      <c r="R7" t="n">
+        <v>164006.70422599</v>
+      </c>
+      <c r="S7" t="n">
+        <v>202350.69141427</v>
+      </c>
+      <c r="T7" t="n">
+        <v>91224.43730291</v>
+      </c>
+      <c r="U7" t="n">
+        <v>140036.86757713</v>
+      </c>
+      <c r="V7" t="n">
+        <v>303568.82460122</v>
+      </c>
+      <c r="W7" t="n">
+        <v>117997.8410059</v>
+      </c>
+      <c r="X7" t="n">
+        <v>89340.86326607</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>167115.28700416</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>651212.05887785</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>358463.92004697</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>64421.85182522</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>102935.51403006</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>466522.3894325</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>99599.33844142</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>558928.1955076701</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>258766.26453694</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>271739.33056259</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>448578.94175273</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>160405.70388514</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>205739.77082758</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>134112.29924554</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>169672.61922718</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>138465.19211807</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>50240.45846609</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>130103.35497538</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>659836.2806491799</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>162024.5662602</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>310281.12353498</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>83352.88962182</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>340997.06740526</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>189639.03752632</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>326876.4440066</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>290406.62614015</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>226176.3880037</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>220043.91010016</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1009</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>61725.93759601</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="n">
-        <v>61725.93759601</v>
+      <c r="C8" t="n">
+        <v>72502.35689582</v>
+      </c>
+      <c r="D8" t="n">
+        <v>87763.81918372</v>
+      </c>
+      <c r="E8" t="n">
+        <v>114800.56887111</v>
+      </c>
+      <c r="F8" t="n">
+        <v>93046.37143622999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>84081.96462802999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>87023.20925008001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>204510.59989633</v>
+      </c>
+      <c r="J8" t="n">
+        <v>116214.25163795</v>
+      </c>
+      <c r="K8" t="n">
+        <v>49199.90042845</v>
+      </c>
+      <c r="L8" t="n">
+        <v>95858.21545287</v>
+      </c>
+      <c r="M8" t="n">
+        <v>51621.52523877</v>
+      </c>
+      <c r="N8" t="n">
+        <v>83418.09630617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>219921.82496248</v>
+      </c>
+      <c r="P8" t="n">
+        <v>179772.36822753</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>101978.2659348</v>
+      </c>
+      <c r="R8" t="n">
+        <v>142381.10584481</v>
+      </c>
+      <c r="S8" t="n">
+        <v>172016.03146786</v>
+      </c>
+      <c r="T8" t="n">
+        <v>34454.41440332</v>
+      </c>
+      <c r="U8" t="n">
+        <v>84633.60029055001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>93547.84572339999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>111443.72089575</v>
+      </c>
+      <c r="X8" t="n">
+        <v>32524.04902599</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>58971.15589268</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>145264.0932163</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>85569.70667509</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>64421.85182522</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>81838.15353628001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>430316.45454446</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>62654.90580122</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>145353.85067105</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>173666.79897762</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>113819.46428695</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>148939.12194464</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>158729.83108153</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>193159.97761444</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>124393.24105629</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>88767.68620339999</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>77363.66545</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>50130.10110281</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>127334.98379007</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>285570.68429967</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>95178.71596543</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>226205.68579431</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>55440.75091629</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>166597.25629984</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>140396.19770403</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>80728.77591604</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>175290.1640788</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>157533.53454477</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>121761.53705575</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1262</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>58848.6982148</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="n">
-        <v>58848.6982148</v>
+      <c r="C9" t="n">
+        <v>71964.41640053</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47659.45773773</v>
+      </c>
+      <c r="E9" t="n">
+        <v>71442.49296335</v>
+      </c>
+      <c r="F9" t="n">
+        <v>39335.26983494</v>
+      </c>
+      <c r="G9" t="n">
+        <v>68963.94152849</v>
+      </c>
+      <c r="H9" t="n">
+        <v>77615.59508953</v>
+      </c>
+      <c r="I9" t="n">
+        <v>106695.33273474</v>
+      </c>
+      <c r="J9" t="n">
+        <v>62510.2989833</v>
+      </c>
+      <c r="K9" t="n">
+        <v>49019.09970516</v>
+      </c>
+      <c r="L9" t="n">
+        <v>52497.77166421</v>
+      </c>
+      <c r="M9" t="n">
+        <v>51621.52523877</v>
+      </c>
+      <c r="N9" t="n">
+        <v>79658.87027949</v>
+      </c>
+      <c r="O9" t="n">
+        <v>92059.85445729</v>
+      </c>
+      <c r="P9" t="n">
+        <v>59155.0357369</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>91444.63068309</v>
+      </c>
+      <c r="R9" t="n">
+        <v>77216.53549487999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>99035.80037411</v>
+      </c>
+      <c r="T9" t="n">
+        <v>34454.41440332</v>
+      </c>
+      <c r="U9" t="n">
+        <v>73898.46707300001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>34367.55824868</v>
+      </c>
+      <c r="W9" t="n">
+        <v>111443.72089575</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21804.7349889</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>48742.38843422</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>90036.87818172001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>60293.62869304</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>64421.85182522</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>46074.11565762</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>430316.45454446</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>47679.53608398</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>108443.37644703</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>51996.03475816</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>60288.62474895</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>132439.26439824</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>105782.29604254</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>135080.51775974</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>69453.72925942999</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>49087.26305008</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>37915.49336726</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>34241.63156386</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>33319.35427797</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>98653.60854625001</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>40167.28411423</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>132884.36859588</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>55440.75091629</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>79599.98154835</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>59153.16849546</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>38527.18294562</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>137638.12432422</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>130600.43522048</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>78219.81733062</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1514</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>58848.6982148</v>
       </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="n">
-        <v>58848.6982148</v>
+      <c r="C10" t="n">
+        <v>18164.6575485</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21174.86882369</v>
+      </c>
+      <c r="E10" t="n">
+        <v>64474.24933531</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20888.25594628</v>
+      </c>
+      <c r="G10" t="n">
+        <v>64333.09609497</v>
+      </c>
+      <c r="H10" t="n">
+        <v>58939.79118505</v>
+      </c>
+      <c r="I10" t="n">
+        <v>82637.55144367</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62208.0253484</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49019.09970516</v>
+      </c>
+      <c r="L10" t="n">
+        <v>48468.13422249</v>
+      </c>
+      <c r="M10" t="n">
+        <v>33374.66331855</v>
+      </c>
+      <c r="N10" t="n">
+        <v>78575.86285328001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>31774.96296506</v>
+      </c>
+      <c r="P10" t="n">
+        <v>36221.51323374</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>40578.40047416</v>
+      </c>
+      <c r="R10" t="n">
+        <v>38110.41732719</v>
+      </c>
+      <c r="S10" t="n">
+        <v>39317.37341259</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6927.69268096</v>
+      </c>
+      <c r="U10" t="n">
+        <v>73191.77308124</v>
+      </c>
+      <c r="V10" t="n">
+        <v>28994.36797711</v>
+      </c>
+      <c r="W10" t="n">
+        <v>43351.36926072</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21758.93763441</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>43505.30170454</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>88535.49666701</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>49578.94000928</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>52418.88854749</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11208.45503257</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>429702.29658936</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>38234.12905274</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>104063.80821479</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>20122.07384592</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>51895.14139393</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>61156.4801031</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>55573.10746432</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>112905.02389211</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>65266.85972971</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>48080.48382146</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>23575.97513964</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>31628.80735784</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21895.99248787</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>91291.26946014</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>13106.938832</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>115126.7802092</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>28322.80342179</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>77923.08348934</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>58561.40195365</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>13420.02935351</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>72186.38640502001</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>98979.12064980999</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>57991.97673831</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1766</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>37798.63507243</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="n">
-        <v>37798.63507243</v>
+      <c r="C11" t="n">
+        <v>15909.38536526</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19848.59410702</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27885.75841534</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20625.17154989</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55857.53435395</v>
+      </c>
+      <c r="H11" t="n">
+        <v>37023.65540879</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44786.61786124</v>
+      </c>
+      <c r="J11" t="n">
+        <v>56332.08852224</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16189.60819081</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9959.650280440001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>21331.06126321</v>
+      </c>
+      <c r="N11" t="n">
+        <v>78575.86285328001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>23477.60266891</v>
+      </c>
+      <c r="P11" t="n">
+        <v>35195.49212656</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40542.19174965</v>
+      </c>
+      <c r="R11" t="n">
+        <v>31711.4492164</v>
+      </c>
+      <c r="S11" t="n">
+        <v>16744.49878766</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5397.90164075</v>
+      </c>
+      <c r="U11" t="n">
+        <v>60643.73768346</v>
+      </c>
+      <c r="V11" t="n">
+        <v>23114.57348808</v>
+      </c>
+      <c r="W11" t="n">
+        <v>31261.84117373</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21407.95772701</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>39225.88455607</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>22679.6545379</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8136.06131865</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>52287.82833124</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7759.25096749</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>276153.79116011</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>38233.27088894</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70287.43213546</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13135.38402805</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>46566.76180853</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>59820.02797546</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>24887.29666541</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>92263.89385769</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>55026.84574597</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>46028.59878001</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>13932.10718885</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>26088.8559189</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21480.98220674</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>52647.55619014</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>11204.85618437</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>67007.991534</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>28322.80342179</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>72502.35699571999</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>28798.0209055</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>13343.20584256</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>55922.67783815</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41073.22213492</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>40328.7497725</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2018</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>11909.42289513</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="n">
-        <v>11909.42289513</v>
+      <c r="C12" t="n">
+        <v>10798.45943387</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14382.45096194</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20294.05292149</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12483.84150012</v>
+      </c>
+      <c r="G12" t="n">
+        <v>52972.48029107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10935.05189999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>44647.66359296</v>
+      </c>
+      <c r="J12" t="n">
+        <v>54571.36479936</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16189.60819081</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9045.299640970001</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7726.05169436</v>
+      </c>
+      <c r="N12" t="n">
+        <v>45368.06487218</v>
+      </c>
+      <c r="O12" t="n">
+        <v>19180.65751645</v>
+      </c>
+      <c r="P12" t="n">
+        <v>35160.43923336</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25873.3712077</v>
+      </c>
+      <c r="R12" t="n">
+        <v>23002.23124749</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9400.98957401</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5265.3109662</v>
+      </c>
+      <c r="U12" t="n">
+        <v>35594.50994293</v>
+      </c>
+      <c r="V12" t="n">
+        <v>19164.91965207</v>
+      </c>
+      <c r="W12" t="n">
+        <v>19506.80793293</v>
+      </c>
+      <c r="X12" t="n">
+        <v>20026.03176077</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>28392.90837689</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22679.6545379</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8136.06131865</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40029.44476675</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7622.49788402</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>114975.29269056</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32601.25698332</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>55715.48380967</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10920.68559301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21919.33581831</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>47624.44534381</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10282.62087069</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>43197.36546589</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>22489.00009947</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>23504.17154699</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9186.059256029999</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>16654.91312479</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21480.98220674</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>52647.55619014</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>8041.52423043</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>24067.70672076</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>16688.9550286</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>36290.48154327</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>18536.78639753</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>11751.56199914</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>29096.1015426</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>38638.60585672</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>25933.41081862</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2271</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>9952.0866092</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="n">
-        <v>9952.0866092</v>
+      <c r="C13" t="n">
+        <v>8149.46201101</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4795.86436187</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20080.3019621</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11260.0237629</v>
+      </c>
+      <c r="G13" t="n">
+        <v>41725.40111338</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10904.05029277</v>
+      </c>
+      <c r="I13" t="n">
+        <v>44476.81864736</v>
+      </c>
+      <c r="J13" t="n">
+        <v>33518.60632527</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16025.27453541</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9045.299640970001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7726.05169436</v>
+      </c>
+      <c r="N13" t="n">
+        <v>45238.01826635</v>
+      </c>
+      <c r="O13" t="n">
+        <v>18166.63115563</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25634.18204818</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19596.52552266</v>
+      </c>
+      <c r="R13" t="n">
+        <v>19938.9826212</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5978.57215278</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5115.50928443</v>
+      </c>
+      <c r="U13" t="n">
+        <v>30631.99158038</v>
+      </c>
+      <c r="V13" t="n">
+        <v>14132.35275686</v>
+      </c>
+      <c r="W13" t="n">
+        <v>18664.54009764</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7862.52397821</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21354.58125825</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19216.72521681</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8136.06131865</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>35251.83364061</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6031.10205576</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>21530.71696274</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16656.31008972</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>39877.02293964</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6999.85203694</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19799.02600022</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23443.18156827</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8595.509381600001</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41726.61609773</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>22351.63352603</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>14218.5370033</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5666.34227993</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12206.78266271</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15229.2018214</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>47140.62785788</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>6544.96401711</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>24067.70672076</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>16270.57047217</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>24348.53628837</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>8740.376246989999</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7719.97236328</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>28293.10612522</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>24844.93482979</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>19097.61802406</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>2523</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>6353.56355757</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="n">
-        <v>6353.56355757</v>
+      <c r="C14" t="n">
+        <v>7413.68602933</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4595.46589358</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5984.71087505</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7698.96938157</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34551.49485195</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10904.05029277</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22882.0242164</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17493.01877828</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10762.68398501</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6099.64414976</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2606.63916563</v>
+      </c>
+      <c r="N14" t="n">
+        <v>42307.68794862</v>
+      </c>
+      <c r="O14" t="n">
+        <v>14236.46535804</v>
+      </c>
+      <c r="P14" t="n">
+        <v>11836.8846469</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6673.33886305</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10968.4665879</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5978.57215278</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4959.49902487</v>
+      </c>
+      <c r="U14" t="n">
+        <v>16705.68180946</v>
+      </c>
+      <c r="V14" t="n">
+        <v>14132.35275686</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10125.65254659</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4854.74887202</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>20032.81662058</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16579.06964513</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4072.61502673</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8112.00257304</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6031.10205576</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17737.82274429</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14618.39328498</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17156.12671421</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6765.06535099</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15957.11442734</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>14935.95313733</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6133.85378364</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>11670.36773821</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17375.2660946</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6107.18744115</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3867.48789475</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11151.78102692</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>6968.0129889</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>40903.94463292</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>6523.17937924</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>16793.58909465</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>10388.15423382</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>21843.26681146</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>8080.29013898</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>7719.97236328</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>24460.96107478</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>22148.09746722</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>12885.17590978</v>
       </c>
     </row>
   </sheetData>
